--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1553"/>
+  <dimension ref="A1:H1531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41227,10 +41227,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41257,10 +41255,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41287,10 +41283,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41321,10 +41315,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41355,10 +41347,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41385,10 +41375,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41415,10 +41403,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41445,10 +41431,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41471,10 +41455,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41505,10 +41487,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41539,10 +41519,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41577,10 +41555,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41619,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41675,10 +41647,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41701,10 +41671,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41731,10 +41699,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41753,10 +41719,8 @@
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41783,10 +41747,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41813,10 +41775,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41835,10 +41795,8 @@
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41857,10 +41815,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41901,10 +41857,8 @@
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41931,10 +41885,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41965,10 +41917,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42003,10 +41953,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -42041,10 +41989,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42021,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42113,10 +42057,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42151,10 +42093,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42125,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42157,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42189,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42287,10 +42221,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42257,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42293,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -42401,10 +42329,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42357,8 @@
       </c>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42461,10 +42385,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42495,10 +42417,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42529,10 +42449,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42567,10 +42485,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42517,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42553,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42585,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42621,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42749,10 +42657,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42685,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42809,10 +42713,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42839,10 +42741,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42869,10 +42769,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42903,10 +42801,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -42937,10 +42833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42989,10 +42883,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43023,10 +42915,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43057,10 +42947,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43091,10 +42979,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43125,10 +43011,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43155,10 +43039,8 @@
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43189,10 +43071,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43223,10 +43103,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43253,10 +43131,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43283,10 +43159,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43313,10 +43187,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43343,10 +43215,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1331">
@@ -43373,10 +43243,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43403,10 +43271,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43433,10 +43299,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43463,10 +43327,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43501,10 +43363,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43535,10 +43395,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43573,10 +43431,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43463,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43637,10 +43491,8 @@
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43675,10 +43527,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43701,10 +43551,8 @@
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1342">
@@ -43731,10 +43579,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43761,10 +43607,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43795,10 +43639,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43829,10 +43671,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43859,10 +43699,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43897,10 +43735,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43935,10 +43771,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43807,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -44011,10 +43843,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43871,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43907,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44109,10 +43935,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44139,10 +43963,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44169,10 +43991,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44213,10 +44033,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44247,10 +44065,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44281,10 +44097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44315,10 +44129,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44349,10 +44161,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44379,10 +44189,8 @@
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44409,10 +44217,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44443,10 +44249,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -44481,10 +44285,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44515,10 +44317,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44545,10 +44345,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44575,10 +44373,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44605,10 +44401,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44635,10 +44429,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44665,10 +44457,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44695,10 +44485,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44725,10 +44513,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44755,10 +44541,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44789,10 +44573,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44823,10 +44605,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44861,10 +44641,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44895,10 +44673,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44929,10 +44705,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44741,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44997,10 +44769,8 @@
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45031,10 +44801,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45065,10 +44833,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45099,10 +44865,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45133,10 +44897,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45171,10 +44933,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44969,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45235,10 +44993,8 @@
       <c r="E1388" t="inlineStr"/>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45269,10 +45025,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45307,10 +45061,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45341,10 +45093,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45375,10 +45125,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45161,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -45443,10 +45189,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45473,10 +45217,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45503,10 +45245,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45533,10 +45273,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45563,10 +45301,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45593,10 +45329,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45623,10 +45357,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45653,10 +45385,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45683,10 +45413,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45713,10 +45441,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45743,10 +45469,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45773,10 +45497,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45803,10 +45525,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45833,10 +45553,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45863,10 +45581,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45893,10 +45609,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45927,10 +45641,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45957,10 +45669,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45991,10 +45701,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46025,10 +45733,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46059,10 +45765,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46093,10 +45797,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -46131,10 +45833,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46165,10 +45865,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46199,10 +45897,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45933,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45969,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +46001,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46033,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46377,10 +46065,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46415,10 +46101,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -46441,10 +46125,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46471,10 +46153,8 @@
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46497,10 +46177,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46527,222 +46205,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1433" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -46754,33 +46450,29 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46792,33 +46484,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46830,67 +46518,67 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46902,29 +46590,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46624,33 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,215 +46662,215 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1442" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47194,57 +46882,57 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47254,125 +46942,89 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47382,31 +47034,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47416,31 +47064,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47450,313 +47094,257 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1462" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47768,33 +47356,29 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47806,33 +47390,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47844,35 +47424,27 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47882,35 +47454,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47920,63 +47484,63 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,7 +47552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -47998,47 +47562,55 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48048,45 +47620,49 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48096,121 +47672,129 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
@@ -48226,17 +47810,17 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48252,55 +47836,47 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48312,27 +47888,31 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
           <t>1</t>
@@ -48342,27 +47922,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -48370,29 +47954,29 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1485" t="inlineStr"/>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48400,25 +47984,33 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48428,65 +48020,41 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48496,29 +48064,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48530,27 +48098,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48560,27 +48132,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48590,97 +48166,93 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -48692,31 +48264,27 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48726,17 +48294,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48752,17 +48320,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48778,17 +48346,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48804,33 +48372,37 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48840,27 +48412,31 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48870,17 +48446,21 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
           <t>2</t>
@@ -48890,7 +48470,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48900,13 +48480,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -48916,7 +48504,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48926,11 +48514,15 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
@@ -48942,7 +48534,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48952,7 +48544,7 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
@@ -48968,7 +48560,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48978,81 +48570,73 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48644,11 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="inlineStr"/>
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1508" t="inlineStr">
         <is>
           <t>US</t>
@@ -49068,21 +48656,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49090,7 +48674,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49098,25 +48686,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49126,39 +48706,47 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
@@ -49170,29 +48758,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -49204,29 +48792,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49238,31 +48826,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -49272,31 +48856,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -49306,87 +48886,79 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
@@ -49400,17 +48972,17 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
@@ -49419,152 +48991,172 @@
       <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
@@ -49576,29 +49168,25 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -49610,23 +49198,23 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
@@ -49640,21 +49228,25 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
@@ -49666,770 +49258,102 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr"/>
+      <c r="C1529" t="inlineStr"/>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1529" t="inlineStr"/>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr"/>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr"/>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1531"/>
+  <dimension ref="A1:H1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46233,10 +46233,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46267,10 +46265,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46301,10 +46297,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46335,10 +46329,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46373,10 +46365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1434">
@@ -46407,10 +46397,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46441,10 +46429,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46475,10 +46461,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46509,10 +46493,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46543,10 +46525,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46581,10 +46561,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -46615,10 +46593,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -46653,10 +46629,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46691,10 +46665,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -46729,10 +46701,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46767,10 +46737,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46805,10 +46773,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46839,10 +46805,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46873,10 +46837,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46903,10 +46865,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46933,10 +46893,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46981,130 +46939,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
@@ -47120,17 +47084,17 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47146,55 +47110,47 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
@@ -47206,27 +47162,31 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1460" t="inlineStr">
         <is>
           <t>1</t>
@@ -47236,27 +47196,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>3</t>
@@ -47264,29 +47228,29 @@
       </c>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47294,25 +47258,33 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47322,65 +47294,41 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47390,29 +47338,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47424,27 +47372,31 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47454,27 +47406,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47484,97 +47440,93 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -47586,31 +47538,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -47620,17 +47568,17 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -47646,17 +47594,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47672,17 +47620,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47698,33 +47646,37 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
@@ -47734,27 +47686,31 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47764,17 +47720,21 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
           <t>2</t>
@@ -47784,7 +47744,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47794,13 +47754,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -47810,7 +47778,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47820,11 +47788,15 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
@@ -47836,7 +47808,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47846,7 +47818,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -47862,7 +47834,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47872,81 +47844,73 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
+      <c r="G1483" t="inlineStr"/>
+      <c r="H1483" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -47954,7 +47918,11 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr"/>
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1485" t="inlineStr">
         <is>
           <t>US</t>
@@ -47962,21 +47930,17 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47984,7 +47948,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -47992,25 +47960,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48020,39 +47980,47 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
@@ -48064,29 +48032,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48098,29 +48066,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48132,31 +48100,27 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48166,31 +48130,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48200,87 +48160,79 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
@@ -48294,17 +48246,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48313,152 +48265,172 @@
       <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
@@ -48470,29 +48442,25 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1502" t="inlineStr"/>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
@@ -48504,23 +48472,23 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
@@ -48534,21 +48502,25 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
@@ -48560,800 +48532,170 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr"/>
+      <c r="C1506" t="inlineStr"/>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1506" t="inlineStr"/>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr"/>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr"/>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1565"/>
+  <dimension ref="A1:H1543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,10 +40903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40941,10 +40939,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40979,10 +40975,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41017,10 +41011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41051,10 +41043,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41089,10 +41079,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41123,10 +41111,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41161,10 +41147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41191,10 +41175,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41213,10 +41195,8 @@
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41265,10 +41245,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1266">
@@ -41303,10 +41281,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41337,10 +41313,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41371,10 +41345,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41401,10 +41373,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41431,10 +41401,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41465,10 +41433,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41499,10 +41465,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41529,10 +41493,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41559,10 +41521,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41589,10 +41549,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41615,10 +41573,8 @@
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -41649,10 +41605,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41683,10 +41637,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41721,10 +41673,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41755,10 +41705,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41789,10 +41737,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41819,10 +41765,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41845,10 +41789,8 @@
       </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41875,10 +41817,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41897,10 +41837,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41927,10 +41865,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41957,10 +41893,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41979,10 +41913,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42001,10 +41933,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42045,10 +41975,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42003,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42109,10 +42035,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42147,10 +42071,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42107,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42139,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42257,10 +42175,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42295,10 +42211,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42329,10 +42243,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42275,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42397,10 +42307,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42339,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42469,10 +42375,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42507,10 +42411,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42545,10 +42447,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42575,10 +42475,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42605,10 +42503,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42535,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42567,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42603,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42745,10 +42635,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42783,10 +42671,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42817,10 +42703,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42855,10 +42739,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42893,10 +42775,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42923,10 +42803,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42953,10 +42831,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42983,10 +42859,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43013,10 +42887,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43047,10 +42919,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43081,10 +42951,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43133,10 +43001,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43167,10 +43033,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43201,10 +43065,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43235,10 +43097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43269,10 +43129,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43299,10 +43157,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43333,10 +43189,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43367,10 +43221,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43397,10 +43249,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43427,10 +43277,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43457,10 +43305,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43487,10 +43333,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43517,10 +43361,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43547,10 +43389,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43577,10 +43417,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43445,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43645,10 +43481,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43679,10 +43513,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43717,10 +43549,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43751,10 +43581,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43781,10 +43609,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43819,10 +43645,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43845,10 +43669,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43875,10 +43697,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43905,10 +43725,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43939,10 +43757,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43789,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44003,10 +43817,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43853,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43889,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44117,10 +43925,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44155,10 +43961,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44185,10 +43989,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44223,10 +44025,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44253,10 +44053,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44283,10 +44081,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44313,10 +44109,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44357,10 +44151,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44391,10 +44183,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44425,10 +44215,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44459,10 +44247,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44493,10 +44279,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44523,10 +44307,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44553,10 +44335,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44587,10 +44367,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44625,10 +44403,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44659,10 +44435,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44689,10 +44463,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44719,10 +44491,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44749,10 +44519,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44779,10 +44547,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44809,10 +44575,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44839,10 +44603,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44869,10 +44631,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44899,10 +44659,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44933,10 +44691,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44723,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45005,10 +44759,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45039,10 +44791,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45073,10 +44823,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45111,10 +44859,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45141,10 +44887,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45175,10 +44919,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44951,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45243,10 +44983,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45277,10 +45015,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45315,10 +45051,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45353,10 +45087,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45379,10 +45111,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45143,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45451,10 +45179,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45485,10 +45211,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45519,10 +45243,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45557,10 +45279,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45587,10 +45307,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45617,10 +45335,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45647,10 +45363,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45677,10 +45391,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45707,10 +45419,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45737,10 +45447,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45767,10 +45475,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45797,10 +45503,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45827,10 +45531,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45857,10 +45559,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45887,10 +45587,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45917,10 +45615,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45947,10 +45643,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45977,10 +45671,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46007,10 +45699,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46037,10 +45727,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46071,10 +45759,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46101,10 +45787,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46135,10 +45819,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46169,10 +45851,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46203,10 +45883,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45915,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45951,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +45983,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46015,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46381,10 +46051,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46419,10 +46087,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46453,10 +46119,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46487,10 +46151,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46521,10 +46183,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46559,10 +46219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46585,10 +46243,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46615,10 +46271,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46641,10 +46295,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46671,222 +46323,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46898,33 +46568,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46602,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,67 +46636,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47046,29 +46708,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47080,33 +46742,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47118,215 +46780,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47338,57 +47000,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47398,125 +47060,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47526,31 +47152,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47560,31 +47182,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47594,313 +47212,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47912,33 +47474,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47950,33 +47508,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,35 +47542,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48026,35 +47572,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48064,63 +47602,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48132,7 +47670,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48142,47 +47680,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48192,45 +47738,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48240,121 +47790,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48370,17 +47928,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48396,55 +47954,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48456,27 +48006,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48486,27 +48040,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48514,29 +48072,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48544,25 +48102,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48572,65 +48138,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48640,29 +48182,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48674,27 +48216,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48704,27 +48250,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48734,97 +48284,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48836,31 +48382,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48870,17 +48412,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48896,17 +48438,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48922,17 +48464,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48948,33 +48490,37 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48984,27 +48530,31 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49014,17 +48564,21 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>2</t>
@@ -49034,7 +48588,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49044,13 +48598,21 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48622,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49070,11 +48632,15 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
@@ -49086,7 +48652,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -49096,7 +48662,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -49112,7 +48678,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -49122,81 +48688,73 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49204,7 +48762,11 @@
       </c>
     </row>
     <row r="1512">
-      <c r="A1512" t="inlineStr"/>
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1512" t="inlineStr">
         <is>
           <t>US</t>
@@ -49212,21 +48774,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49234,7 +48792,11 @@
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="inlineStr"/>
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1513" t="inlineStr">
         <is>
           <t>US</t>
@@ -49242,25 +48804,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -49270,39 +48824,47 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
@@ -49314,29 +48876,29 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -49348,29 +48910,29 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -49382,31 +48944,27 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -49416,31 +48974,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -49450,87 +49004,79 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
@@ -49544,17 +49090,17 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
@@ -49563,152 +49109,172 @@
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
@@ -49720,29 +49286,25 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
@@ -49754,23 +49316,23 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
@@ -49784,21 +49346,25 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
@@ -49810,193 +49376,197 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr"/>
+      <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1533" t="inlineStr"/>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
@@ -50008,29 +49578,29 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50042,31 +49612,27 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
         <is>
           <t>3</t>
@@ -50076,758 +49642,90 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1555" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr"/>
-      <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr"/>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1564"/>
+  <dimension ref="A1:H1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41227,10 +41227,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41257,10 +41255,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41287,10 +41283,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41321,10 +41315,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41355,10 +41347,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41385,10 +41375,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41415,10 +41403,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41445,10 +41431,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41471,10 +41455,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41505,10 +41487,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41539,10 +41519,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41577,10 +41555,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41619,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41675,10 +41647,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41701,10 +41671,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41731,10 +41699,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41753,10 +41719,8 @@
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41783,10 +41747,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41813,10 +41775,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41835,10 +41795,8 @@
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41857,10 +41815,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41901,10 +41857,8 @@
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41931,10 +41885,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41965,10 +41917,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42003,10 +41953,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -42041,10 +41989,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42021,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42113,10 +42057,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42151,10 +42093,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42125,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42157,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42189,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42287,10 +42221,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42257,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42293,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -42401,10 +42329,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42357,8 @@
       </c>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42461,10 +42385,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42495,10 +42417,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42529,10 +42449,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42567,10 +42485,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42517,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42553,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42585,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42621,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42749,10 +42657,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42685,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42809,10 +42713,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42839,10 +42741,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42869,10 +42769,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42903,10 +42801,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -42937,10 +42833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42989,10 +42883,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43023,10 +42915,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43057,10 +42947,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43091,10 +42979,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43125,10 +43011,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43155,10 +43039,8 @@
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43189,10 +43071,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43223,10 +43103,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43253,10 +43131,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43283,10 +43159,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43313,10 +43187,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43343,10 +43215,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1331">
@@ -43373,10 +43243,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43403,10 +43271,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43433,10 +43299,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43463,10 +43327,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43501,10 +43363,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43535,10 +43395,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43573,10 +43431,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43463,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43637,10 +43491,8 @@
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43675,10 +43527,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43701,10 +43551,8 @@
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1342">
@@ -43731,10 +43579,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43761,10 +43607,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43795,10 +43639,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43829,10 +43671,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43859,10 +43699,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43897,10 +43735,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43935,10 +43771,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43807,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -44011,10 +43843,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43871,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43907,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44109,10 +43935,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44139,10 +43963,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44169,10 +43991,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44213,10 +44033,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44247,10 +44065,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44281,10 +44097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44315,10 +44129,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44349,10 +44161,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44379,10 +44189,8 @@
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44409,10 +44217,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44443,10 +44249,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -44481,10 +44285,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44515,10 +44317,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44545,10 +44345,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44575,10 +44373,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44605,10 +44401,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44635,10 +44429,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44665,10 +44457,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44695,10 +44485,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44725,10 +44513,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44755,10 +44541,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44789,10 +44573,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44823,10 +44605,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44861,10 +44641,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44895,10 +44673,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44929,10 +44705,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44741,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44997,10 +44769,8 @@
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45031,10 +44801,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45065,10 +44833,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45099,10 +44865,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45133,10 +44897,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45171,10 +44933,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44969,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45235,10 +44993,8 @@
       <c r="E1388" t="inlineStr"/>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45269,10 +45025,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45307,10 +45061,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45341,10 +45093,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45375,10 +45125,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45161,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -45443,10 +45189,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45473,10 +45217,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45503,10 +45245,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45533,10 +45273,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45563,10 +45301,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45593,10 +45329,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45623,10 +45357,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45653,10 +45385,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45683,10 +45413,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45713,10 +45441,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45743,10 +45469,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45773,10 +45497,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45803,10 +45525,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45833,10 +45553,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45863,10 +45581,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45893,10 +45609,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45927,10 +45641,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45957,10 +45669,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45991,10 +45701,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46025,10 +45733,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46059,10 +45765,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46093,10 +45797,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -46131,10 +45833,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46165,10 +45865,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46199,10 +45897,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45933,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45969,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +46001,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46033,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46377,10 +46065,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46415,10 +46101,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -46441,10 +46125,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46471,10 +46153,8 @@
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46497,10 +46177,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46527,222 +46205,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1433" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -46754,33 +46450,29 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46792,33 +46484,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46830,67 +46518,67 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46902,29 +46590,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46624,33 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,215 +46662,215 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1442" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47194,57 +46882,57 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47254,125 +46942,89 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47382,31 +47034,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47416,31 +47064,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47450,313 +47094,257 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1462" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47768,33 +47356,29 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47806,33 +47390,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47844,35 +47424,27 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47882,35 +47454,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47920,63 +47484,63 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,7 +47552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -47998,47 +47562,55 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48048,45 +47620,49 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48096,121 +47672,129 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
@@ -48226,17 +47810,17 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48252,55 +47836,47 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48312,27 +47888,31 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
           <t>1</t>
@@ -48342,27 +47922,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -48370,29 +47954,29 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1485" t="inlineStr"/>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48400,25 +47984,33 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48428,65 +48020,41 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48496,29 +48064,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48530,27 +48098,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48560,27 +48132,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48590,97 +48166,93 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -48692,31 +48264,27 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48726,17 +48294,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48752,17 +48320,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48778,17 +48346,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48804,33 +48372,37 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48840,27 +48412,31 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48870,17 +48446,21 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
           <t>2</t>
@@ -48890,7 +48470,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48900,13 +48480,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -48916,7 +48504,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48926,11 +48514,15 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
@@ -48942,7 +48534,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48952,7 +48544,7 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
@@ -48968,7 +48560,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48978,81 +48570,73 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48644,11 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="inlineStr"/>
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1508" t="inlineStr">
         <is>
           <t>US</t>
@@ -49068,21 +48656,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49090,7 +48674,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49098,25 +48686,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49126,39 +48706,47 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
@@ -49170,29 +48758,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -49204,29 +48792,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49238,31 +48826,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -49272,31 +48856,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -49306,87 +48886,79 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
@@ -49400,17 +48972,17 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
@@ -49419,152 +48991,172 @@
       <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
@@ -49576,29 +49168,25 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -49610,23 +49198,23 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
@@ -49640,21 +49228,25 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
@@ -49666,193 +49258,197 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr"/>
+      <c r="C1529" t="inlineStr"/>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1529" t="inlineStr"/>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
@@ -49864,29 +49460,29 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
@@ -49898,31 +49494,27 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
         <is>
           <t>3</t>
@@ -49932,81 +49524,85 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr"/>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
@@ -50018,25 +49614,21 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -50048,23 +49640,23 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr"/>
@@ -50078,23 +49670,27 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1542" t="inlineStr">
         <is>
           <t>2</t>
@@ -50104,670 +49700,128 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1546" t="inlineStr"/>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr"/>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr"/>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1555" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>10-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>6-Month BOT Auction</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1547"/>
+  <dimension ref="A1:H1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46233,10 +46233,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46267,10 +46265,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46301,10 +46297,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46335,10 +46329,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46373,10 +46365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1434">
@@ -46407,10 +46397,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46441,10 +46429,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46475,10 +46461,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46509,10 +46493,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46543,10 +46525,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46581,10 +46561,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -46615,10 +46593,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -46653,10 +46629,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46691,10 +46665,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -46729,10 +46701,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46767,10 +46737,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46805,10 +46773,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46839,10 +46805,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46873,10 +46837,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46903,10 +46865,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46933,10 +46893,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46981,130 +46939,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
@@ -47120,17 +47084,17 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47146,55 +47110,47 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
@@ -47206,27 +47162,31 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1460" t="inlineStr">
         <is>
           <t>1</t>
@@ -47236,27 +47196,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>3</t>
@@ -47264,29 +47228,29 @@
       </c>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47294,25 +47258,33 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47322,65 +47294,41 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47390,29 +47338,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47424,27 +47372,31 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47454,27 +47406,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47484,97 +47440,93 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -47586,31 +47538,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -47620,17 +47568,17 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -47646,17 +47594,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47672,17 +47620,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47698,33 +47646,37 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
@@ -47734,27 +47686,31 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47764,17 +47720,21 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
           <t>2</t>
@@ -47784,7 +47744,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47794,13 +47754,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -47810,7 +47778,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47820,11 +47788,15 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
@@ -47836,7 +47808,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47846,7 +47818,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -47862,7 +47834,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47872,81 +47844,73 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
+      <c r="G1483" t="inlineStr"/>
+      <c r="H1483" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -47954,7 +47918,11 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr"/>
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1485" t="inlineStr">
         <is>
           <t>US</t>
@@ -47962,21 +47930,17 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47984,7 +47948,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -47992,25 +47960,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48020,39 +47980,47 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
@@ -48064,29 +48032,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48098,29 +48066,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48132,31 +48100,27 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48166,31 +48130,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48200,87 +48160,79 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
@@ -48294,17 +48246,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48313,152 +48265,172 @@
       <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
@@ -48470,29 +48442,25 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1502" t="inlineStr"/>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
@@ -48504,23 +48472,23 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
@@ -48534,21 +48502,25 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
@@ -48560,193 +48532,197 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr"/>
+      <c r="C1506" t="inlineStr"/>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1506" t="inlineStr"/>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
@@ -48758,29 +48734,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -48792,31 +48768,27 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -48826,81 +48798,85 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
@@ -48912,25 +48888,21 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1517" t="inlineStr"/>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
@@ -48942,23 +48914,23 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
@@ -48972,23 +48944,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr"/>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1519" t="inlineStr">
         <is>
           <t>2</t>
@@ -48998,830 +48974,128 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr"/>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr"/>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr">
-        <is>
-          <t>10-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr">
-        <is>
-          <t>6-Month BOT Auction</t>
-        </is>
-      </c>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1578"/>
+  <dimension ref="A1:H1556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,10 +40903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40941,10 +40939,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40979,10 +40975,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41017,10 +41011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41051,10 +41043,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41089,10 +41079,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41123,10 +41111,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41161,10 +41147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41183,10 +41167,8 @@
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41235,10 +41217,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1265">
@@ -41273,10 +41253,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41307,10 +41285,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41341,10 +41317,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41371,10 +41345,8 @@
       </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41401,10 +41373,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41435,10 +41405,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41469,10 +41437,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41499,10 +41465,8 @@
       </c>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41529,10 +41493,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41559,10 +41521,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41585,10 +41545,8 @@
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1276">
@@ -41619,10 +41577,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41653,10 +41609,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41691,10 +41645,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41725,10 +41677,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41759,10 +41709,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41789,10 +41737,8 @@
       </c>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41815,10 +41761,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41845,10 +41789,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41875,10 +41817,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41897,10 +41837,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41927,10 +41865,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41957,10 +41893,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41979,10 +41913,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42001,10 +41933,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42045,10 +41975,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42003,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42109,10 +42035,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42147,10 +42071,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42107,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42139,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42257,10 +42175,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42295,10 +42211,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42329,10 +42243,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42275,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42397,10 +42307,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42339,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42469,10 +42375,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42507,10 +42411,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42545,10 +42447,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42575,10 +42475,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42605,10 +42503,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42535,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42567,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42603,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42745,10 +42635,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42783,10 +42671,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42817,10 +42703,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42855,10 +42739,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42893,10 +42775,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42923,10 +42803,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42953,10 +42831,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42983,10 +42859,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43013,10 +42887,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43047,10 +42919,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43081,10 +42951,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43133,10 +43001,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43167,10 +43033,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43201,10 +43065,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43235,10 +43097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43269,10 +43129,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43299,10 +43157,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43333,10 +43189,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43367,10 +43221,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43397,10 +43249,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43427,10 +43277,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43457,10 +43305,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43487,10 +43333,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43517,10 +43361,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43547,10 +43389,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43577,10 +43417,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43445,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43645,10 +43481,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43679,10 +43513,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43717,10 +43549,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43751,10 +43581,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43781,10 +43609,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43819,10 +43645,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43845,10 +43669,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43875,10 +43697,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43905,10 +43725,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43939,10 +43757,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43789,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44003,10 +43817,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43853,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43889,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44117,10 +43925,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44155,10 +43961,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44185,10 +43989,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44223,10 +44025,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44253,10 +44053,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44283,10 +44081,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44313,10 +44109,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44357,10 +44151,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44391,10 +44183,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44425,10 +44215,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44459,10 +44247,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44493,10 +44279,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44523,10 +44307,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44553,10 +44335,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44587,10 +44367,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44625,10 +44403,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44659,10 +44435,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44689,10 +44463,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44719,10 +44491,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44749,10 +44519,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44779,10 +44547,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44809,10 +44575,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44839,10 +44603,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44869,10 +44631,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44899,10 +44659,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44933,10 +44691,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44723,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45005,10 +44759,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45039,10 +44791,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45073,10 +44823,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45111,10 +44859,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45141,10 +44887,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45175,10 +44919,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44951,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45243,10 +44983,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45277,10 +45015,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45315,10 +45051,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45353,10 +45087,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45379,10 +45111,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45143,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45451,10 +45179,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45485,10 +45211,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45519,10 +45243,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45557,10 +45279,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45587,10 +45307,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45617,10 +45335,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45647,10 +45363,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45677,10 +45391,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45707,10 +45419,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45737,10 +45447,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45767,10 +45475,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45797,10 +45503,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45827,10 +45531,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45857,10 +45559,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45887,10 +45587,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45917,10 +45615,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45947,10 +45643,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45977,10 +45671,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46007,10 +45699,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46037,10 +45727,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46071,10 +45759,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46101,10 +45787,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46135,10 +45819,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46169,10 +45851,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46203,10 +45883,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45915,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45951,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +45983,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46015,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46381,10 +46051,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46419,10 +46087,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46453,10 +46119,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46487,10 +46151,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46521,10 +46183,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46559,10 +46219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46585,10 +46243,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46615,10 +46271,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46641,10 +46295,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46671,222 +46323,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46898,33 +46568,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46602,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,67 +46636,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47046,29 +46708,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47080,33 +46742,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47118,215 +46780,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47338,57 +47000,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47398,125 +47060,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47526,31 +47152,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47560,31 +47182,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47594,313 +47212,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47912,33 +47474,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47950,33 +47508,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,35 +47542,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48026,35 +47572,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48064,63 +47602,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48132,7 +47670,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48142,47 +47680,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48192,45 +47738,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48240,121 +47790,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48370,17 +47928,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48396,55 +47954,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48456,27 +48006,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48486,27 +48040,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48514,29 +48072,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48544,25 +48102,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48572,65 +48138,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48640,29 +48182,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48674,27 +48216,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48704,27 +48250,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48734,97 +48284,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48836,31 +48382,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48870,17 +48412,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48896,17 +48438,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48922,17 +48464,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48948,33 +48490,37 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48984,27 +48530,31 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49014,17 +48564,21 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>2</t>
@@ -49034,7 +48588,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49044,13 +48598,21 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48622,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49070,11 +48632,15 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
@@ -49086,7 +48652,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -49096,7 +48662,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -49112,7 +48678,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -49122,81 +48688,73 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49204,7 +48762,11 @@
       </c>
     </row>
     <row r="1512">
-      <c r="A1512" t="inlineStr"/>
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1512" t="inlineStr">
         <is>
           <t>US</t>
@@ -49212,21 +48774,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49234,7 +48792,11 @@
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="inlineStr"/>
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1513" t="inlineStr">
         <is>
           <t>US</t>
@@ -49242,25 +48804,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -49270,39 +48824,47 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
@@ -49314,29 +48876,29 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -49348,29 +48910,29 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -49382,31 +48944,27 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -49416,31 +48974,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -49450,87 +49004,79 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
@@ -49544,17 +49090,17 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
@@ -49563,152 +49109,172 @@
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
@@ -49720,29 +49286,25 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
@@ -49754,23 +49316,23 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
@@ -49784,21 +49346,25 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
@@ -49810,193 +49376,197 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr"/>
+      <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1533" t="inlineStr"/>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
@@ -50008,29 +49578,29 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50042,31 +49612,27 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
         <is>
           <t>3</t>
@@ -50076,81 +49642,85 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
@@ -50162,25 +49732,21 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
@@ -50192,23 +49758,23 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
@@ -50222,23 +49788,27 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
           <t>2</t>
@@ -50248,954 +49818,286 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1550" t="inlineStr"/>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr"/>
-      <c r="C1556" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr"/>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr">
-        <is>
-          <t>10-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr">
-        <is>
-          <t>6-Month BOT Auction</t>
-        </is>
-      </c>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr"/>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr">
+      <c r="H1556" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1586"/>
+  <dimension ref="A1:H1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41199,10 +41199,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41233,10 +41231,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41263,10 +41259,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41293,10 +41287,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41327,10 +41319,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41361,10 +41351,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41391,10 +41379,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41421,10 +41407,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41451,10 +41435,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41477,10 +41459,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41511,10 +41491,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41545,10 +41523,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41583,10 +41559,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41617,10 +41591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41651,10 +41623,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41681,10 +41651,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41707,10 +41675,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41737,10 +41703,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41767,10 +41731,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41789,10 +41751,8 @@
       <c r="E1282" t="inlineStr"/>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41819,10 +41779,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41849,10 +41807,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41871,10 +41827,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41893,10 +41847,8 @@
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41937,10 +41889,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41967,10 +41917,8 @@
       </c>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42001,10 +41949,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1291">
@@ -42039,10 +41985,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
@@ -42077,10 +42021,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42111,10 +42053,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42149,10 +42089,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42187,10 +42125,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42221,10 +42157,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42255,10 +42189,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42289,10 +42221,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42323,10 +42253,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42361,10 +42289,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1301">
@@ -42399,10 +42325,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1302">
@@ -42437,10 +42361,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42467,10 +42389,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42497,10 +42417,8 @@
       </c>
       <c r="F1304" t="inlineStr"/>
       <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42531,10 +42449,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42565,10 +42481,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42603,10 +42517,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -42637,10 +42549,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42675,10 +42585,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1310">
@@ -42709,10 +42617,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42747,10 +42653,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42785,10 +42689,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42815,10 +42717,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42845,10 +42745,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42875,10 +42773,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42905,10 +42801,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42939,10 +42833,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -42973,10 +42865,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43025,10 +42915,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -43059,10 +42947,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43093,10 +42979,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1323">
@@ -43127,10 +43011,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43161,10 +43043,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43191,10 +43071,8 @@
       </c>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43225,10 +43103,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43259,10 +43135,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43289,10 +43163,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43319,10 +43191,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43349,10 +43219,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43379,10 +43247,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1332">
@@ -43409,10 +43275,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43439,10 +43303,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43469,10 +43331,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43499,10 +43359,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43537,10 +43395,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43571,10 +43427,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43609,10 +43463,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43643,10 +43495,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43673,10 +43523,8 @@
       </c>
       <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43711,10 +43559,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43737,10 +43583,8 @@
       <c r="E1342" t="inlineStr"/>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1343">
@@ -43767,10 +43611,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43797,10 +43639,8 @@
       </c>
       <c r="F1344" t="inlineStr"/>
       <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43831,10 +43671,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -43865,10 +43703,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43895,10 +43731,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43933,10 +43767,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1349">
@@ -43971,10 +43803,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1350">
@@ -44009,10 +43839,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -44047,10 +43875,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44077,10 +43903,8 @@
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44115,10 +43939,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44145,10 +43967,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44175,10 +43995,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44205,10 +44023,8 @@
       </c>
       <c r="F1356" t="inlineStr"/>
       <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44249,10 +44065,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44283,10 +44097,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44317,10 +44129,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44351,10 +44161,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44385,10 +44193,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44415,10 +44221,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44445,10 +44249,8 @@
       </c>
       <c r="F1364" t="inlineStr"/>
       <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44479,10 +44281,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44517,10 +44317,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1367">
@@ -44551,10 +44349,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44581,10 +44377,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44611,10 +44405,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44641,10 +44433,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44671,10 +44461,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44701,10 +44489,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44731,10 +44517,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44761,10 +44545,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44791,10 +44573,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44825,10 +44605,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44859,10 +44637,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44897,10 +44673,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -44931,10 +44705,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44965,10 +44737,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45003,10 +44773,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45033,10 +44801,8 @@
       </c>
       <c r="F1382" t="inlineStr"/>
       <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45067,10 +44833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45101,10 +44865,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45135,10 +44897,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45169,10 +44929,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45207,10 +44965,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45245,10 +45001,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45271,10 +45025,8 @@
       <c r="E1389" t="inlineStr"/>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1390">
@@ -45305,10 +45057,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1391">
@@ -45343,10 +45093,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45377,10 +45125,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45411,10 +45157,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45449,10 +45193,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45479,10 +45221,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45509,10 +45249,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45539,10 +45277,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45569,10 +45305,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45599,10 +45333,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45629,10 +45361,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45659,10 +45389,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45689,10 +45417,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45719,10 +45445,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45749,10 +45473,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45779,10 +45501,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45809,10 +45529,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45839,10 +45557,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45869,10 +45585,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45899,10 +45613,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45929,10 +45641,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45963,10 +45673,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45993,10 +45701,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46027,10 +45733,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46061,10 +45765,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46095,10 +45797,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46129,10 +45829,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -46167,10 +45865,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46201,10 +45897,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46235,10 +45929,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -46273,10 +45965,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1421">
@@ -46311,10 +46001,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46345,10 +46033,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1423">
@@ -46379,10 +46065,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46413,10 +46097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -46451,10 +46133,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
@@ -46477,10 +46157,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1427">
@@ -46507,10 +46185,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46533,10 +46209,8 @@
       </c>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -46563,222 +46237,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
+      <c r="H1430" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1434" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1434" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46790,33 +46482,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46828,33 +46516,29 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
@@ -46866,67 +46550,67 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46938,29 +46622,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46972,33 +46656,33 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
@@ -47010,215 +46694,215 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1443" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -47230,57 +46914,57 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1450" t="inlineStr"/>
       <c r="H1450" t="inlineStr">
         <is>
           <t>3</t>
@@ -47290,125 +46974,89 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr"/>
+      <c r="C1451" t="inlineStr"/>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr"/>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1451" t="inlineStr"/>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr"/>
+      <c r="C1453" t="inlineStr"/>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1453" t="inlineStr"/>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47418,31 +47066,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47452,31 +47096,27 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
           <t>3</t>
@@ -47486,313 +47126,257 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1463" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47804,33 +47388,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47842,33 +47422,29 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -47880,35 +47456,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47918,35 +47486,27 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr"/>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -47956,63 +47516,63 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -48024,7 +47584,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
@@ -48034,47 +47594,55 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
+      <c r="G1473" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1473" t="inlineStr">
         <is>
           <t>3</t>
@@ -48084,45 +47652,49 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1475" t="inlineStr"/>
       <c r="H1475" t="inlineStr">
         <is>
           <t>3</t>
@@ -48132,121 +47704,129 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48262,17 +47842,17 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -48288,55 +47868,47 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1483" t="inlineStr"/>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
@@ -48348,27 +47920,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>1</t>
@@ -48378,27 +47954,31 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48406,29 +47986,29 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48436,25 +48016,33 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1487" t="inlineStr"/>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48464,65 +48052,41 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr"/>
+      <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr"/>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1489" t="inlineStr"/>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48532,29 +48096,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48566,27 +48130,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48596,27 +48164,31 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48626,97 +48198,93 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1495" t="inlineStr">
@@ -48728,31 +48296,27 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
           <t>3</t>
@@ -48762,17 +48326,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48788,17 +48352,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48814,17 +48378,17 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
@@ -48840,33 +48404,37 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr"/>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48876,27 +48444,31 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48906,17 +48478,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>2</t>
@@ -48926,7 +48502,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48936,13 +48512,21 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
           <t>3</t>
@@ -48952,7 +48536,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48962,11 +48546,15 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
@@ -48978,7 +48566,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48988,7 +48576,7 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
@@ -49004,7 +48592,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49014,81 +48602,73 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
+      <c r="G1507" t="inlineStr"/>
+      <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49096,7 +48676,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49104,21 +48688,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49126,7 +48706,11 @@
       </c>
     </row>
     <row r="1510">
-      <c r="A1510" t="inlineStr"/>
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1510" t="inlineStr">
         <is>
           <t>US</t>
@@ -49134,25 +48718,17 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1510" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr"/>
       <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
@@ -49162,39 +48738,47 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr"/>
-      <c r="C1511" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr"/>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1512" t="inlineStr"/>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
@@ -49206,29 +48790,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49240,29 +48824,29 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
@@ -49274,31 +48858,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -49308,31 +48888,27 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
           <t>3</t>
@@ -49342,87 +48918,79 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1517" t="inlineStr"/>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
@@ -49436,17 +49004,17 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
@@ -49455,152 +49023,172 @@
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -49612,29 +49200,25 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
@@ -49646,23 +49230,23 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
@@ -49676,21 +49260,25 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
@@ -49702,193 +49290,197 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr"/>
+      <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1530" t="inlineStr"/>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr"/>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
@@ -49900,29 +49492,29 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
@@ -49934,31 +49526,27 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
           <t>3</t>
@@ -49968,81 +49556,85 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr"/>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -50054,25 +49646,21 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
@@ -50084,23 +49672,23 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
@@ -50114,23 +49702,27 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1543" t="inlineStr">
         <is>
           <t>2</t>
@@ -50140,457 +49732,413 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1546" t="inlineStr"/>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr"/>
-      <c r="C1553" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr"/>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
@@ -50602,31 +50150,23 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
           <t>3</t>
@@ -50636,25 +50176,21 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
@@ -50666,85 +50202,73 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
@@ -50756,17 +50280,17 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
@@ -50779,614 +50303,6 @@
         </is>
       </c>
     </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1576" t="inlineStr"/>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1564"/>
+  <dimension ref="A1:H1541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46265,10 +46265,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46299,10 +46297,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46333,10 +46329,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46367,10 +46361,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -46405,10 +46397,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46439,10 +46429,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1436">
@@ -46473,10 +46461,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -46507,10 +46493,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46541,10 +46525,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46575,10 +46557,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1440">
@@ -46613,10 +46593,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1441">
@@ -46647,10 +46625,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46685,10 +46661,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -46723,10 +46697,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46761,10 +46733,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46799,10 +46769,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46837,10 +46805,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46871,10 +46837,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46905,10 +46869,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46935,10 +46897,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46965,10 +46925,8 @@
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -47013,130 +46971,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
+      <c r="H1453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1455" t="inlineStr"/>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47152,17 +47116,17 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
@@ -47178,55 +47142,47 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
@@ -47238,27 +47194,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>1</t>
@@ -47268,27 +47228,31 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47296,29 +47260,29 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47326,25 +47290,33 @@
       </c>
     </row>
     <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1464" t="inlineStr"/>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1464" t="inlineStr">
         <is>
           <t>3</t>
@@ -47354,65 +47326,41 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1465" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr"/>
+      <c r="C1465" t="inlineStr"/>
       <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
+      <c r="H1465" t="inlineStr"/>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
           <t>3</t>
@@ -47422,29 +47370,29 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -47456,27 +47404,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47486,27 +47438,31 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -47516,97 +47472,93 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -47618,31 +47570,27 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1473" t="inlineStr"/>
       <c r="H1473" t="inlineStr">
         <is>
           <t>3</t>
@@ -47652,17 +47600,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47678,17 +47626,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47704,17 +47652,17 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
@@ -47730,33 +47678,37 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47766,27 +47718,31 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47796,17 +47752,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>2</t>
@@ -47816,7 +47776,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47826,13 +47786,21 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1480" t="inlineStr">
         <is>
           <t>3</t>
@@ -47842,7 +47810,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47852,11 +47820,15 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
@@ -47868,7 +47840,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47878,7 +47850,7 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
@@ -47894,7 +47866,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
@@ -47904,81 +47876,73 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
+      <c r="G1484" t="inlineStr"/>
+      <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47986,7 +47950,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -47994,21 +47962,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48016,7 +47980,11 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr"/>
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1487" t="inlineStr">
         <is>
           <t>US</t>
@@ -48024,25 +47992,17 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1487" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr"/>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48052,39 +48012,47 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1489" t="inlineStr"/>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
       <c r="H1489" t="inlineStr">
@@ -48096,29 +48064,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48130,29 +48098,29 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
@@ -48164,31 +48132,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48198,31 +48162,27 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48232,87 +48192,79 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
@@ -48326,17 +48278,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48345,152 +48297,172 @@
       <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
@@ -48502,29 +48474,25 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1503" t="inlineStr">
@@ -48536,23 +48504,23 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr"/>
@@ -48566,21 +48534,25 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
@@ -48592,193 +48564,197 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr"/>
+      <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1507" t="inlineStr"/>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
@@ -48790,29 +48766,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -48824,31 +48800,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -48858,81 +48830,85 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
@@ -48944,25 +48920,21 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
@@ -48974,23 +48946,23 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
@@ -49004,23 +48976,27 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
           <t>2</t>
@@ -49030,457 +49006,413 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1525" t="inlineStr"/>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
+      <c r="G1528" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr"/>
-      <c r="C1530" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr"/>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1532" t="inlineStr"/>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1533" t="inlineStr"/>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1534" t="inlineStr"/>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
@@ -49492,31 +49424,23 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
         <is>
           <t>3</t>
@@ -49526,25 +49450,21 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
@@ -49556,85 +49476,73 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -49646,17 +49554,17 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
@@ -49669,640 +49577,6 @@
         </is>
       </c>
     </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1555" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1591"/>
+  <dimension ref="A1:H1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,10 +40903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40941,10 +40939,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40979,10 +40975,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41017,10 +41011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41051,10 +41043,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41089,10 +41079,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41123,10 +41111,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41161,10 +41147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41183,10 +41167,8 @@
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41235,10 +41217,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1265">
@@ -41273,10 +41253,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41307,10 +41285,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41341,10 +41317,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41371,10 +41345,8 @@
       </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41401,10 +41373,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41435,10 +41405,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41469,10 +41437,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41499,10 +41465,8 @@
       </c>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41529,10 +41493,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41559,10 +41521,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41585,10 +41545,8 @@
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1276">
@@ -41619,10 +41577,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41653,10 +41609,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41691,10 +41645,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41725,10 +41677,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41759,10 +41709,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41789,10 +41737,8 @@
       </c>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41815,10 +41761,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41845,10 +41789,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41875,10 +41817,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41897,10 +41837,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41927,10 +41865,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41957,10 +41893,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41979,10 +41913,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42001,10 +41933,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42045,10 +41975,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42003,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42109,10 +42035,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42147,10 +42071,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42107,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42139,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42257,10 +42175,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42295,10 +42211,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42329,10 +42243,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42275,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42397,10 +42307,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42339,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42469,10 +42375,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42507,10 +42411,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42545,10 +42447,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42575,10 +42475,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42605,10 +42503,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42535,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42567,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42603,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42745,10 +42635,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42783,10 +42671,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42817,10 +42703,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42855,10 +42739,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42893,10 +42775,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42923,10 +42803,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42953,10 +42831,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42983,10 +42859,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43013,10 +42887,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43047,10 +42919,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43081,10 +42951,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43133,10 +43001,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43167,10 +43033,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43201,10 +43065,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43235,10 +43097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43269,10 +43129,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43299,10 +43157,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43333,10 +43189,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43367,10 +43221,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43397,10 +43249,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43427,10 +43277,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43457,10 +43305,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43487,10 +43333,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43517,10 +43361,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43547,10 +43389,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43577,10 +43417,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43445,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43645,10 +43481,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43679,10 +43513,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43717,10 +43549,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43751,10 +43581,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43781,10 +43609,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43819,10 +43645,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43845,10 +43669,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43875,10 +43697,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43905,10 +43725,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43939,10 +43757,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43789,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44003,10 +43817,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43853,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43889,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44117,10 +43925,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44155,10 +43961,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44185,10 +43989,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44223,10 +44025,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44253,10 +44053,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44283,10 +44081,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44313,10 +44109,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44357,10 +44151,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44391,10 +44183,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44425,10 +44215,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44459,10 +44247,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44493,10 +44279,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44523,10 +44307,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44553,10 +44335,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44587,10 +44367,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44625,10 +44403,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44659,10 +44435,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44689,10 +44463,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44719,10 +44491,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44749,10 +44519,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44779,10 +44547,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44809,10 +44575,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44839,10 +44603,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44869,10 +44631,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44899,10 +44659,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44933,10 +44691,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44723,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45005,10 +44759,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45039,10 +44791,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45073,10 +44823,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45111,10 +44859,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45141,10 +44887,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45175,10 +44919,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44951,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45243,10 +44983,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45277,10 +45015,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45315,10 +45051,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45353,10 +45087,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45379,10 +45111,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45143,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45451,10 +45179,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45485,10 +45211,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45519,10 +45243,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45557,10 +45279,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45587,10 +45307,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45617,10 +45335,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45647,10 +45363,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45677,10 +45391,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45707,10 +45419,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45737,10 +45447,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45767,10 +45475,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45797,10 +45503,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45827,10 +45531,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45857,10 +45559,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45887,10 +45587,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45917,10 +45615,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45947,10 +45643,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45977,10 +45671,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46007,10 +45699,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46037,10 +45727,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46071,10 +45759,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46101,10 +45787,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46135,10 +45819,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46169,10 +45851,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46203,10 +45883,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45915,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45951,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +45983,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46015,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46381,10 +46051,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46419,10 +46087,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46453,10 +46119,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46487,10 +46151,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46521,10 +46183,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46559,10 +46219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46585,10 +46243,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46615,10 +46271,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46641,10 +46295,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46671,222 +46323,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46898,33 +46568,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46602,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,67 +46636,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47046,29 +46708,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47080,33 +46742,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47118,215 +46780,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47338,57 +47000,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47398,125 +47060,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47526,31 +47152,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47560,31 +47182,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47594,313 +47212,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47912,33 +47474,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47950,33 +47508,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,35 +47542,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48026,35 +47572,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48064,63 +47602,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48132,7 +47670,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48142,47 +47680,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48192,45 +47738,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48240,121 +47790,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48370,17 +47928,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48396,55 +47954,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48456,27 +48006,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48486,27 +48040,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48514,29 +48072,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48544,25 +48102,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48572,65 +48138,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48640,29 +48182,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48674,27 +48216,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48704,27 +48250,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48734,97 +48284,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48836,31 +48382,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48870,17 +48412,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48896,17 +48438,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48922,17 +48464,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48948,33 +48490,37 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48984,27 +48530,31 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49014,17 +48564,21 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>2</t>
@@ -49034,7 +48588,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49044,13 +48598,21 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48622,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49070,11 +48632,15 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
@@ -49086,7 +48652,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -49096,7 +48662,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -49112,7 +48678,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -49122,81 +48688,73 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49204,7 +48762,11 @@
       </c>
     </row>
     <row r="1512">
-      <c r="A1512" t="inlineStr"/>
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1512" t="inlineStr">
         <is>
           <t>US</t>
@@ -49212,21 +48774,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49234,7 +48792,11 @@
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="inlineStr"/>
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1513" t="inlineStr">
         <is>
           <t>US</t>
@@ -49242,25 +48804,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -49270,39 +48824,47 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
@@ -49314,29 +48876,29 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -49348,29 +48910,29 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -49382,31 +48944,27 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -49416,31 +48974,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -49450,87 +49004,79 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
@@ -49544,17 +49090,17 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
@@ -49563,152 +49109,172 @@
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
@@ -49720,29 +49286,25 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
@@ -49754,23 +49316,23 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
@@ -49784,21 +49346,25 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
@@ -49810,193 +49376,197 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr"/>
+      <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1533" t="inlineStr"/>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
@@ -50008,29 +49578,29 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50042,31 +49612,27 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
         <is>
           <t>3</t>
@@ -50076,81 +49642,85 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
@@ -50162,25 +49732,21 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
@@ -50192,23 +49758,23 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
@@ -50222,23 +49788,27 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
           <t>2</t>
@@ -50248,457 +49818,413 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1550" t="inlineStr"/>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr"/>
-      <c r="C1556" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr"/>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
@@ -50710,31 +50236,23 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
           <t>3</t>
@@ -50744,25 +50262,21 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
@@ -50774,85 +50288,73 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1564" t="inlineStr"/>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1565" t="inlineStr"/>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1566" t="inlineStr"/>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
@@ -50864,17 +50366,17 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
@@ -50890,662 +50392,54 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr"/>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr"/>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr"/>
-      <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
-      <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr"/>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1591" t="inlineStr"/>
-      <c r="E1591" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
-      <c r="H1591" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1589"/>
+  <dimension ref="A1:H1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41199,10 +41199,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41233,10 +41231,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41263,10 +41259,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41293,10 +41287,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41327,10 +41319,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41361,10 +41351,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41391,10 +41379,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41421,10 +41407,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41451,10 +41435,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41477,10 +41459,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41511,10 +41491,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41545,10 +41523,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41583,10 +41559,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41617,10 +41591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41651,10 +41623,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41681,10 +41651,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41707,10 +41675,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41737,10 +41703,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41767,10 +41731,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41789,10 +41751,8 @@
       <c r="E1282" t="inlineStr"/>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41819,10 +41779,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41849,10 +41807,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41871,10 +41827,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41893,10 +41847,8 @@
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41937,10 +41889,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41967,10 +41917,8 @@
       </c>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42001,10 +41949,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1291">
@@ -42039,10 +41985,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
@@ -42077,10 +42021,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42111,10 +42053,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42149,10 +42089,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42187,10 +42125,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42221,10 +42157,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42255,10 +42189,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42289,10 +42221,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42323,10 +42253,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42361,10 +42289,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1301">
@@ -42399,10 +42325,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1302">
@@ -42437,10 +42361,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42467,10 +42389,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42497,10 +42417,8 @@
       </c>
       <c r="F1304" t="inlineStr"/>
       <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42531,10 +42449,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42565,10 +42481,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42603,10 +42517,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -42637,10 +42549,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42675,10 +42585,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1310">
@@ -42709,10 +42617,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42747,10 +42653,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42785,10 +42689,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42815,10 +42717,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42845,10 +42745,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42875,10 +42773,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42905,10 +42801,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42939,10 +42833,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -42973,10 +42865,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43025,10 +42915,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -43059,10 +42947,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43093,10 +42979,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1323">
@@ -43127,10 +43011,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43161,10 +43043,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43191,10 +43071,8 @@
       </c>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43225,10 +43103,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43259,10 +43135,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43289,10 +43163,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43319,10 +43191,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43349,10 +43219,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43379,10 +43247,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1332">
@@ -43409,10 +43275,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43439,10 +43303,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43469,10 +43331,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43499,10 +43359,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43537,10 +43395,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43571,10 +43427,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43609,10 +43463,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43643,10 +43495,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43673,10 +43523,8 @@
       </c>
       <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43711,10 +43559,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43737,10 +43583,8 @@
       <c r="E1342" t="inlineStr"/>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1343">
@@ -43767,10 +43611,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43797,10 +43639,8 @@
       </c>
       <c r="F1344" t="inlineStr"/>
       <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43831,10 +43671,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -43865,10 +43703,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43895,10 +43731,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43933,10 +43767,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1349">
@@ -43971,10 +43803,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1350">
@@ -44009,10 +43839,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -44047,10 +43875,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44077,10 +43903,8 @@
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44115,10 +43939,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44145,10 +43967,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44175,10 +43995,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44205,10 +44023,8 @@
       </c>
       <c r="F1356" t="inlineStr"/>
       <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44249,10 +44065,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44283,10 +44097,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44317,10 +44129,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44351,10 +44161,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44385,10 +44193,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44415,10 +44221,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44445,10 +44249,8 @@
       </c>
       <c r="F1364" t="inlineStr"/>
       <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44479,10 +44281,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44517,10 +44317,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1367">
@@ -44551,10 +44349,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44581,10 +44377,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44611,10 +44405,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44641,10 +44433,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44671,10 +44461,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44701,10 +44489,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44731,10 +44517,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44761,10 +44545,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44791,10 +44573,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44825,10 +44605,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44859,10 +44637,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44897,10 +44673,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -44931,10 +44705,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44965,10 +44737,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45003,10 +44773,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45033,10 +44801,8 @@
       </c>
       <c r="F1382" t="inlineStr"/>
       <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45067,10 +44833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45101,10 +44865,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45135,10 +44897,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45169,10 +44929,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45207,10 +44965,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45245,10 +45001,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45271,10 +45025,8 @@
       <c r="E1389" t="inlineStr"/>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1390">
@@ -45305,10 +45057,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1391">
@@ -45343,10 +45093,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45377,10 +45125,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45411,10 +45157,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45449,10 +45193,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45479,10 +45221,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45509,10 +45249,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45539,10 +45277,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45569,10 +45305,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45599,10 +45333,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45629,10 +45361,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45659,10 +45389,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45689,10 +45417,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45719,10 +45445,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45749,10 +45473,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45779,10 +45501,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45809,10 +45529,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45839,10 +45557,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45869,10 +45585,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45899,10 +45613,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45929,10 +45641,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45963,10 +45673,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45993,10 +45701,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46027,10 +45733,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46061,10 +45765,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46095,10 +45797,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46129,10 +45829,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -46167,10 +45865,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46201,10 +45897,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46235,10 +45929,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -46273,10 +45965,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1421">
@@ -46311,10 +46001,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46345,10 +46033,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1423">
@@ -46379,10 +46065,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46413,10 +46097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -46451,10 +46133,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
@@ -46477,10 +46157,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1427">
@@ -46507,10 +46185,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46533,10 +46209,8 @@
       </c>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -46563,222 +46237,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
+      <c r="H1430" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1434" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1434" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46790,33 +46482,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46828,33 +46516,29 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
@@ -46866,67 +46550,67 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46938,29 +46622,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46972,33 +46656,33 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
@@ -47010,215 +46694,215 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1443" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -47230,57 +46914,57 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1450" t="inlineStr"/>
       <c r="H1450" t="inlineStr">
         <is>
           <t>3</t>
@@ -47290,125 +46974,89 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr"/>
+      <c r="C1451" t="inlineStr"/>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr"/>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1451" t="inlineStr"/>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr"/>
+      <c r="C1453" t="inlineStr"/>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1453" t="inlineStr"/>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47418,31 +47066,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47452,31 +47096,27 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
           <t>3</t>
@@ -47486,313 +47126,257 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1463" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47804,33 +47388,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47842,33 +47422,29 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -47880,35 +47456,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47918,35 +47486,27 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr"/>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -47956,63 +47516,63 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -48024,7 +47584,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
@@ -48034,47 +47594,55 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
+      <c r="G1473" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1473" t="inlineStr">
         <is>
           <t>3</t>
@@ -48084,45 +47652,49 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1475" t="inlineStr"/>
       <c r="H1475" t="inlineStr">
         <is>
           <t>3</t>
@@ -48132,121 +47704,129 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48262,17 +47842,17 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -48288,55 +47868,47 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1483" t="inlineStr"/>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
@@ -48348,27 +47920,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>1</t>
@@ -48378,27 +47954,31 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48406,29 +47986,29 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48436,25 +48016,33 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1487" t="inlineStr"/>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48464,65 +48052,41 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr"/>
+      <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr"/>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1489" t="inlineStr"/>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48532,29 +48096,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48566,27 +48130,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48596,27 +48164,31 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48626,97 +48198,93 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1495" t="inlineStr">
@@ -48728,31 +48296,27 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
           <t>3</t>
@@ -48762,17 +48326,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48788,17 +48352,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48814,17 +48378,17 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
@@ -48840,33 +48404,37 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr"/>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48876,27 +48444,31 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48906,17 +48478,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>2</t>
@@ -48926,7 +48502,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48936,13 +48512,21 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
           <t>3</t>
@@ -48952,7 +48536,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48962,11 +48546,15 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
@@ -48978,7 +48566,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48988,7 +48576,7 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
@@ -49004,7 +48592,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49014,81 +48602,73 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
+      <c r="G1507" t="inlineStr"/>
+      <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49096,7 +48676,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49104,21 +48688,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49126,7 +48706,11 @@
       </c>
     </row>
     <row r="1510">
-      <c r="A1510" t="inlineStr"/>
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1510" t="inlineStr">
         <is>
           <t>US</t>
@@ -49134,25 +48718,17 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1510" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr"/>
       <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
@@ -49162,39 +48738,47 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr"/>
-      <c r="C1511" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr"/>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1512" t="inlineStr"/>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
@@ -49206,29 +48790,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49240,29 +48824,29 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
@@ -49274,31 +48858,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -49308,31 +48888,27 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
           <t>3</t>
@@ -49342,87 +48918,79 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1517" t="inlineStr"/>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
@@ -49436,17 +49004,17 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
@@ -49455,152 +49023,172 @@
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -49612,29 +49200,25 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
@@ -49646,23 +49230,23 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
@@ -49676,21 +49260,25 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
@@ -49702,193 +49290,197 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr"/>
+      <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1530" t="inlineStr"/>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr"/>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
@@ -49900,29 +49492,29 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
@@ -49934,31 +49526,27 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
           <t>3</t>
@@ -49968,81 +49556,85 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr"/>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -50054,25 +49646,21 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
@@ -50084,23 +49672,23 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
@@ -50114,23 +49702,27 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1543" t="inlineStr">
         <is>
           <t>2</t>
@@ -50140,457 +49732,413 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1546" t="inlineStr"/>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr"/>
-      <c r="C1553" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr"/>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
@@ -50602,31 +50150,23 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
           <t>3</t>
@@ -50636,25 +50176,21 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
@@ -50666,85 +50202,73 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
@@ -50756,17 +50280,17 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
@@ -50782,690 +50306,90 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr"/>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1567" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1576" t="inlineStr"/>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1567"/>
+  <dimension ref="A1:H1544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46265,10 +46265,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46299,10 +46297,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46333,10 +46329,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46367,10 +46361,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -46405,10 +46397,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46439,10 +46429,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1436">
@@ -46473,10 +46461,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -46507,10 +46493,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46541,10 +46525,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46575,10 +46557,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1440">
@@ -46613,10 +46593,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1441">
@@ -46647,10 +46625,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46685,10 +46661,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -46723,10 +46697,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46761,10 +46733,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46799,10 +46769,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46837,10 +46805,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46871,10 +46837,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46905,10 +46869,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46935,10 +46897,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46965,10 +46925,8 @@
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -47013,130 +46971,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
+      <c r="H1453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1455" t="inlineStr"/>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47152,17 +47116,17 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
@@ -47178,55 +47142,47 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
@@ -47238,27 +47194,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>1</t>
@@ -47268,27 +47228,31 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47296,29 +47260,29 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47326,25 +47290,33 @@
       </c>
     </row>
     <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1464" t="inlineStr"/>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1464" t="inlineStr">
         <is>
           <t>3</t>
@@ -47354,65 +47326,41 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1465" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr"/>
+      <c r="C1465" t="inlineStr"/>
       <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
+      <c r="H1465" t="inlineStr"/>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
           <t>3</t>
@@ -47422,29 +47370,29 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -47456,27 +47404,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47486,27 +47438,31 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -47516,97 +47472,93 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -47618,31 +47570,27 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1473" t="inlineStr"/>
       <c r="H1473" t="inlineStr">
         <is>
           <t>3</t>
@@ -47652,17 +47600,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47678,17 +47626,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47704,17 +47652,17 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
@@ -47730,33 +47678,37 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47766,27 +47718,31 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47796,17 +47752,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>2</t>
@@ -47816,7 +47776,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47826,13 +47786,21 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1480" t="inlineStr">
         <is>
           <t>3</t>
@@ -47842,7 +47810,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47852,11 +47820,15 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
@@ -47868,7 +47840,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47878,7 +47850,7 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
@@ -47894,7 +47866,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
@@ -47904,81 +47876,73 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
+      <c r="G1484" t="inlineStr"/>
+      <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47986,7 +47950,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -47994,21 +47962,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48016,7 +47980,11 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr"/>
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1487" t="inlineStr">
         <is>
           <t>US</t>
@@ -48024,25 +47992,17 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1487" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr"/>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48052,39 +48012,47 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1489" t="inlineStr"/>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
       <c r="H1489" t="inlineStr">
@@ -48096,29 +48064,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48130,29 +48098,29 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
@@ -48164,31 +48132,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48198,31 +48162,27 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48232,87 +48192,79 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
@@ -48326,17 +48278,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48345,152 +48297,172 @@
       <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
@@ -48502,29 +48474,25 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1503" t="inlineStr">
@@ -48536,23 +48504,23 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr"/>
@@ -48566,21 +48534,25 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
@@ -48592,193 +48564,197 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr"/>
+      <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1507" t="inlineStr"/>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
@@ -48790,29 +48766,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -48824,31 +48800,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -48858,81 +48830,85 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
@@ -48944,25 +48920,21 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
@@ -48974,23 +48946,23 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
@@ -49004,23 +48976,27 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
           <t>2</t>
@@ -49030,457 +49006,413 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1525" t="inlineStr"/>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
+      <c r="G1528" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr"/>
-      <c r="C1530" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr"/>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1532" t="inlineStr"/>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1533" t="inlineStr"/>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1534" t="inlineStr"/>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
@@ -49492,31 +49424,23 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
         <is>
           <t>3</t>
@@ -49526,25 +49450,21 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
@@ -49556,85 +49476,73 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -49646,17 +49554,17 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
@@ -49672,722 +49580,88 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1555" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1567" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1599"/>
+  <dimension ref="A1:H1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40907,10 +40907,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40949,10 +40947,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40987,10 +40983,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41025,10 +41019,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41059,10 +41051,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41097,10 +41087,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41131,10 +41119,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41169,10 +41155,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41191,10 +41175,8 @@
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41243,10 +41225,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1265">
@@ -41281,10 +41261,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41315,10 +41293,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41349,10 +41325,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41379,10 +41353,8 @@
       </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41409,10 +41381,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41443,10 +41413,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41477,10 +41445,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41507,10 +41473,8 @@
       </c>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41537,10 +41501,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41567,10 +41529,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41593,10 +41553,8 @@
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1276">
@@ -41627,10 +41585,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41661,10 +41617,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41699,10 +41653,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41733,10 +41685,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41767,10 +41717,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41797,10 +41745,8 @@
       </c>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41823,10 +41769,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41853,10 +41797,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41883,10 +41825,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41905,10 +41845,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41935,10 +41873,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41965,10 +41901,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41987,10 +41921,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42009,10 +41941,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42053,10 +41983,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42083,10 +42011,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42117,10 +42043,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42155,10 +42079,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42193,10 +42115,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42227,10 +42147,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42265,10 +42183,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42303,10 +42219,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42337,10 +42251,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42371,10 +42283,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42405,10 +42315,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42439,10 +42347,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42477,10 +42383,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42515,10 +42419,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42553,10 +42455,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42583,10 +42483,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42613,10 +42511,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42647,10 +42543,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42681,10 +42575,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42719,10 +42611,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42753,10 +42643,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42791,10 +42679,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42825,10 +42711,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42863,10 +42747,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42901,10 +42783,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42931,10 +42811,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42961,10 +42839,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42991,10 +42867,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43021,10 +42895,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43055,10 +42927,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43089,10 +42959,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43141,10 +43009,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43175,10 +43041,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43209,10 +43073,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43243,10 +43105,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43277,10 +43137,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43307,10 +43165,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43341,10 +43197,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43375,10 +43229,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43405,10 +43257,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43435,10 +43285,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43465,10 +43313,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43495,10 +43341,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43525,10 +43369,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43555,10 +43397,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43585,10 +43425,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43615,10 +43453,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43653,10 +43489,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43687,10 +43521,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43725,10 +43557,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43759,10 +43589,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43789,10 +43617,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43827,10 +43653,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43853,10 +43677,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43883,10 +43705,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43913,10 +43733,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43947,10 +43765,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43981,10 +43797,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44011,10 +43825,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44049,10 +43861,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44087,10 +43897,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44125,10 +43933,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44163,10 +43969,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44193,10 +43997,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44231,10 +44033,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44261,10 +44061,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44291,10 +44089,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44321,10 +44117,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44365,10 +44159,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44399,10 +44191,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44433,10 +44223,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44467,10 +44255,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44501,10 +44287,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44531,10 +44315,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44561,10 +44343,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44595,10 +44375,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44633,10 +44411,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44667,10 +44443,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44697,10 +44471,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44727,10 +44499,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44757,10 +44527,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44787,10 +44555,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44817,10 +44583,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44847,10 +44611,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44877,10 +44639,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44907,10 +44667,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44941,10 +44699,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44975,10 +44731,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45013,10 +44767,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45047,10 +44799,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45081,10 +44831,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45119,10 +44867,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45149,10 +44895,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45183,10 +44927,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45217,10 +44959,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45251,10 +44991,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45285,10 +45023,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45323,10 +45059,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45361,10 +45095,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45387,10 +45119,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45421,10 +45151,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45459,10 +45187,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45493,10 +45219,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45527,10 +45251,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45565,10 +45287,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45595,10 +45315,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45625,10 +45343,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45655,10 +45371,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45685,10 +45399,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45715,10 +45427,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45745,10 +45455,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45775,10 +45483,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45805,10 +45511,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45835,10 +45539,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45865,10 +45567,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45895,10 +45595,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45925,10 +45623,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45955,10 +45651,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45985,10 +45679,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46015,10 +45707,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46045,10 +45735,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46079,10 +45767,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46109,10 +45795,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46143,10 +45827,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46177,10 +45859,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46211,10 +45891,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46245,10 +45923,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46283,10 +45959,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46317,10 +45991,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46351,10 +46023,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46389,10 +46059,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46427,10 +46095,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46461,10 +46127,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46495,10 +46159,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46529,10 +46191,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46567,10 +46227,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46593,10 +46251,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46623,10 +46279,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46649,10 +46303,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46679,222 +46331,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46906,33 +46576,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46944,33 +46610,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46982,67 +46644,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47054,29 +46716,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47088,33 +46750,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47126,215 +46788,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47346,57 +47008,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47406,125 +47068,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47534,31 +47160,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47568,31 +47190,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47602,313 +47220,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47920,33 +47482,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47958,33 +47516,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47996,35 +47550,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48034,35 +47580,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48072,63 +47610,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48140,7 +47678,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48150,47 +47688,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48200,45 +47746,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48248,121 +47798,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48378,17 +47936,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48404,55 +47962,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48464,27 +48014,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48494,27 +48048,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48522,29 +48080,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48552,25 +48110,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48580,65 +48146,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48648,29 +48190,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48682,27 +48224,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48712,27 +48258,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48742,97 +48292,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48844,31 +48390,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48878,17 +48420,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48904,17 +48446,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48930,17 +48472,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48956,33 +48498,37 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48992,27 +48538,31 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49022,17 +48572,21 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>2</t>
@@ -49042,7 +48596,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49052,13 +48606,21 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49068,7 +48630,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49078,11 +48640,15 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
@@ -49094,7 +48660,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -49104,7 +48670,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -49120,7 +48686,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -49130,81 +48696,73 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49212,7 +48770,11 @@
       </c>
     </row>
     <row r="1512">
-      <c r="A1512" t="inlineStr"/>
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1512" t="inlineStr">
         <is>
           <t>US</t>
@@ -49220,21 +48782,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49242,7 +48800,11 @@
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="inlineStr"/>
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1513" t="inlineStr">
         <is>
           <t>US</t>
@@ -49250,25 +48812,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -49278,39 +48832,47 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
@@ -49322,29 +48884,29 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -49356,29 +48918,29 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -49390,31 +48952,27 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -49424,31 +48982,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -49458,87 +49012,79 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
@@ -49552,17 +49098,17 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
@@ -49571,152 +49117,172 @@
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
@@ -49728,29 +49294,25 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
@@ -49762,23 +49324,23 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
@@ -49792,21 +49354,25 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
@@ -49818,193 +49384,197 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr"/>
+      <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1533" t="inlineStr"/>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
@@ -50016,29 +49586,29 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50050,31 +49620,27 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
         <is>
           <t>3</t>
@@ -50084,81 +49650,85 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
@@ -50170,25 +49740,21 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
@@ -50200,23 +49766,23 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
@@ -50230,23 +49796,27 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
           <t>2</t>
@@ -50256,457 +49826,413 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1550" t="inlineStr"/>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr"/>
-      <c r="C1556" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr"/>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
@@ -50718,31 +50244,23 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
           <t>3</t>
@@ -50752,25 +50270,21 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
@@ -50782,85 +50296,73 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1564" t="inlineStr"/>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1565" t="inlineStr"/>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1566" t="inlineStr"/>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
@@ -50872,17 +50374,17 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
@@ -50898,83 +50400,87 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr"/>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1570" t="inlineStr">
         <is>
           <t>2</t>
@@ -50984,17 +50490,17 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
@@ -51010,17 +50516,17 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
@@ -51036,21 +50542,25 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr"/>
       <c r="H1573" t="inlineStr">
@@ -51062,17 +50572,17 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
@@ -51081,715 +50591,73 @@
       <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr"/>
-      <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
-      <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr"/>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1591" t="inlineStr"/>
-      <c r="E1591" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1592" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr"/>
-      <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr"/>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1595" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr"/>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1596" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1597" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr"/>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1598" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1598" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1599" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1599" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1599" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1596"/>
+  <dimension ref="A1:H1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41207,10 +41207,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41241,10 +41239,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41271,10 +41267,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41301,10 +41295,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41335,10 +41327,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41369,10 +41359,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41399,10 +41387,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41429,10 +41415,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41459,10 +41443,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41485,10 +41467,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41519,10 +41499,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41553,10 +41531,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41591,10 +41567,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41625,10 +41599,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41659,10 +41631,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41689,10 +41659,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41715,10 +41683,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41745,10 +41711,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41775,10 +41739,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41797,10 +41759,8 @@
       <c r="E1282" t="inlineStr"/>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41827,10 +41787,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41857,10 +41815,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41879,10 +41835,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41901,10 +41855,8 @@
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41945,10 +41897,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41975,10 +41925,8 @@
       </c>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42009,10 +41957,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1291">
@@ -42047,10 +41993,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
@@ -42085,10 +42029,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42119,10 +42061,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42157,10 +42097,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42195,10 +42133,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42229,10 +42165,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42263,10 +42197,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42297,10 +42229,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42331,10 +42261,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42369,10 +42297,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1301">
@@ -42407,10 +42333,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1302">
@@ -42445,10 +42369,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42475,10 +42397,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42505,10 +42425,8 @@
       </c>
       <c r="F1304" t="inlineStr"/>
       <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42539,10 +42457,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42573,10 +42489,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42611,10 +42525,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -42645,10 +42557,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42683,10 +42593,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1310">
@@ -42717,10 +42625,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42755,10 +42661,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42793,10 +42697,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42823,10 +42725,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42853,10 +42753,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42883,10 +42781,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42913,10 +42809,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42947,10 +42841,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -42981,10 +42873,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43033,10 +42923,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -43067,10 +42955,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43101,10 +42987,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1323">
@@ -43135,10 +43019,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43169,10 +43051,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43199,10 +43079,8 @@
       </c>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43233,10 +43111,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43267,10 +43143,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43297,10 +43171,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43327,10 +43199,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43357,10 +43227,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43387,10 +43255,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1332">
@@ -43417,10 +43283,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43447,10 +43311,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43477,10 +43339,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43507,10 +43367,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43545,10 +43403,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43579,10 +43435,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43617,10 +43471,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43651,10 +43503,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43681,10 +43531,8 @@
       </c>
       <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43719,10 +43567,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43745,10 +43591,8 @@
       <c r="E1342" t="inlineStr"/>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1343">
@@ -43775,10 +43619,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43805,10 +43647,8 @@
       </c>
       <c r="F1344" t="inlineStr"/>
       <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43839,10 +43679,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -43873,10 +43711,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43903,10 +43739,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43941,10 +43775,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1349">
@@ -43979,10 +43811,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1350">
@@ -44017,10 +43847,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -44055,10 +43883,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44085,10 +43911,8 @@
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44123,10 +43947,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44153,10 +43975,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44183,10 +44003,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44213,10 +44031,8 @@
       </c>
       <c r="F1356" t="inlineStr"/>
       <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44257,10 +44073,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44291,10 +44105,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44325,10 +44137,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44359,10 +44169,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44393,10 +44201,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44423,10 +44229,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44453,10 +44257,8 @@
       </c>
       <c r="F1364" t="inlineStr"/>
       <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44487,10 +44289,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44525,10 +44325,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1367">
@@ -44559,10 +44357,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44589,10 +44385,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44619,10 +44413,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44649,10 +44441,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44679,10 +44469,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44709,10 +44497,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44739,10 +44525,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44769,10 +44553,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44799,10 +44581,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44833,10 +44613,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44867,10 +44645,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44905,10 +44681,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -44939,10 +44713,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44973,10 +44745,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45011,10 +44781,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45041,10 +44809,8 @@
       </c>
       <c r="F1382" t="inlineStr"/>
       <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45075,10 +44841,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45109,10 +44873,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45143,10 +44905,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45177,10 +44937,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45215,10 +44973,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45253,10 +45009,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45279,10 +45033,8 @@
       <c r="E1389" t="inlineStr"/>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1390">
@@ -45313,10 +45065,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1391">
@@ -45351,10 +45101,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45385,10 +45133,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45419,10 +45165,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45457,10 +45201,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45487,10 +45229,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45517,10 +45257,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45547,10 +45285,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45577,10 +45313,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45607,10 +45341,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45637,10 +45369,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45667,10 +45397,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45697,10 +45425,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45727,10 +45453,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45757,10 +45481,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45787,10 +45509,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45817,10 +45537,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45847,10 +45565,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45877,10 +45593,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45907,10 +45621,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45937,10 +45649,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45971,10 +45681,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46001,10 +45709,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46035,10 +45741,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46069,10 +45773,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46103,10 +45805,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46137,10 +45837,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -46175,10 +45873,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46209,10 +45905,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46243,10 +45937,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -46281,10 +45973,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1421">
@@ -46319,10 +46009,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46353,10 +46041,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1423">
@@ -46387,10 +46073,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46421,10 +46105,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -46459,10 +46141,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
@@ -46485,10 +46165,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1427">
@@ -46515,10 +46193,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46541,10 +46217,8 @@
       </c>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -46571,222 +46245,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
+      <c r="H1430" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1434" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1434" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46798,33 +46490,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46836,33 +46524,29 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
@@ -46874,67 +46558,67 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46946,29 +46630,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46980,33 +46664,33 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
@@ -47018,215 +46702,215 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1443" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -47238,57 +46922,57 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1450" t="inlineStr"/>
       <c r="H1450" t="inlineStr">
         <is>
           <t>3</t>
@@ -47298,125 +46982,89 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr"/>
+      <c r="C1451" t="inlineStr"/>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr"/>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1451" t="inlineStr"/>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr"/>
+      <c r="C1453" t="inlineStr"/>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1453" t="inlineStr"/>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47426,31 +47074,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47460,31 +47104,27 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
           <t>3</t>
@@ -47494,313 +47134,257 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1463" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47812,33 +47396,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47850,33 +47430,29 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -47888,35 +47464,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47926,35 +47494,27 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr"/>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -47964,63 +47524,63 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -48032,7 +47592,7 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
@@ -48042,47 +47602,55 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
+      <c r="G1473" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1473" t="inlineStr">
         <is>
           <t>3</t>
@@ -48092,45 +47660,49 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1475" t="inlineStr"/>
       <c r="H1475" t="inlineStr">
         <is>
           <t>3</t>
@@ -48140,121 +47712,129 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48270,17 +47850,17 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -48296,55 +47876,47 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1483" t="inlineStr"/>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
@@ -48356,27 +47928,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>1</t>
@@ -48386,27 +47962,31 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48414,29 +47994,29 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48444,25 +48024,33 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1487" t="inlineStr"/>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48472,65 +48060,41 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr"/>
+      <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr"/>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1489" t="inlineStr"/>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48540,29 +48104,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48574,27 +48138,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48604,27 +48172,31 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48634,97 +48206,93 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1495" t="inlineStr">
@@ -48736,31 +48304,27 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
           <t>3</t>
@@ -48770,17 +48334,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48796,17 +48360,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48822,17 +48386,17 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
@@ -48848,33 +48412,37 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr"/>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48884,27 +48452,31 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48914,17 +48486,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>2</t>
@@ -48934,7 +48510,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48944,13 +48520,21 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
           <t>3</t>
@@ -48960,7 +48544,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48970,11 +48554,15 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
@@ -48986,7 +48574,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48996,7 +48584,7 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
@@ -49012,7 +48600,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49022,81 +48610,73 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
+      <c r="G1507" t="inlineStr"/>
+      <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49104,7 +48684,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49112,21 +48696,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49134,7 +48714,11 @@
       </c>
     </row>
     <row r="1510">
-      <c r="A1510" t="inlineStr"/>
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1510" t="inlineStr">
         <is>
           <t>US</t>
@@ -49142,25 +48726,17 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1510" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr"/>
       <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
@@ -49170,39 +48746,47 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr"/>
-      <c r="C1511" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr"/>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1512" t="inlineStr"/>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
@@ -49214,29 +48798,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49248,29 +48832,29 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
@@ -49282,31 +48866,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -49316,31 +48896,27 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
           <t>3</t>
@@ -49350,87 +48926,79 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1517" t="inlineStr"/>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
@@ -49444,17 +49012,17 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
@@ -49463,152 +49031,172 @@
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -49620,29 +49208,25 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
@@ -49654,23 +49238,23 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
@@ -49684,21 +49268,25 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
@@ -49710,193 +49298,197 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr"/>
+      <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1530" t="inlineStr"/>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr"/>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
@@ -49908,29 +49500,29 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
@@ -49942,31 +49534,27 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
           <t>3</t>
@@ -49976,81 +49564,85 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr"/>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -50062,25 +49654,21 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
@@ -50092,23 +49680,23 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
@@ -50122,23 +49710,27 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1543" t="inlineStr">
         <is>
           <t>2</t>
@@ -50148,457 +49740,413 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1546" t="inlineStr"/>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr"/>
-      <c r="C1553" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr"/>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
@@ -50610,31 +50158,23 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
           <t>3</t>
@@ -50644,25 +50184,21 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
@@ -50674,85 +50210,73 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
@@ -50764,17 +50288,17 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
@@ -50790,83 +50314,87 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr"/>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1567" t="inlineStr">
         <is>
           <t>2</t>
@@ -50876,17 +50404,17 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
@@ -50902,17 +50430,17 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
@@ -50928,21 +50456,25 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr"/>
       <c r="H1570" t="inlineStr">
@@ -50954,17 +50486,17 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
@@ -50973,715 +50505,73 @@
       <c r="G1571" t="inlineStr"/>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
+      <c r="G1573" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1576" t="inlineStr"/>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1591" t="inlineStr"/>
-      <c r="E1591" t="inlineStr"/>
-      <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1592" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr"/>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr"/>
-      <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr"/>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1595" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1596" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1596" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1573"/>
+  <dimension ref="A1:H1550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46273,10 +46273,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46307,10 +46305,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46341,10 +46337,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46375,10 +46369,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -46413,10 +46405,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46447,10 +46437,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1436">
@@ -46481,10 +46469,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -46515,10 +46501,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46549,10 +46533,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46583,10 +46565,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1440">
@@ -46621,10 +46601,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1441">
@@ -46655,10 +46633,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46693,10 +46669,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -46731,10 +46705,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46769,10 +46741,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46807,10 +46777,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46845,10 +46813,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46879,10 +46845,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46913,10 +46877,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46943,10 +46905,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46973,10 +46933,8 @@
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -47021,130 +46979,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
+      <c r="H1453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1455" t="inlineStr"/>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47160,17 +47124,17 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
@@ -47186,55 +47150,47 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
@@ -47246,27 +47202,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>1</t>
@@ -47276,27 +47236,31 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47304,29 +47268,29 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47334,25 +47298,33 @@
       </c>
     </row>
     <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1464" t="inlineStr"/>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1464" t="inlineStr">
         <is>
           <t>3</t>
@@ -47362,65 +47334,41 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1465" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr"/>
+      <c r="C1465" t="inlineStr"/>
       <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
+      <c r="H1465" t="inlineStr"/>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
           <t>3</t>
@@ -47430,29 +47378,29 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -47464,27 +47412,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47494,27 +47446,31 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -47524,97 +47480,93 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -47626,31 +47578,27 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1473" t="inlineStr"/>
       <c r="H1473" t="inlineStr">
         <is>
           <t>3</t>
@@ -47660,17 +47608,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47686,17 +47634,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47712,17 +47660,17 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
@@ -47738,33 +47686,37 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47774,27 +47726,31 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47804,17 +47760,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>2</t>
@@ -47824,7 +47784,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47834,13 +47794,21 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1480" t="inlineStr">
         <is>
           <t>3</t>
@@ -47850,7 +47818,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47860,11 +47828,15 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
@@ -47876,7 +47848,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47886,7 +47858,7 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
@@ -47902,7 +47874,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
@@ -47912,81 +47884,73 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
+      <c r="G1484" t="inlineStr"/>
+      <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47994,7 +47958,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -48002,21 +47970,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48024,7 +47988,11 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr"/>
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1487" t="inlineStr">
         <is>
           <t>US</t>
@@ -48032,25 +48000,17 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1487" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr"/>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48060,39 +48020,47 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1489" t="inlineStr"/>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
       <c r="H1489" t="inlineStr">
@@ -48104,29 +48072,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48138,29 +48106,29 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
@@ -48172,31 +48140,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48206,31 +48170,27 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48240,87 +48200,79 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
@@ -48334,17 +48286,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48353,152 +48305,172 @@
       <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
@@ -48510,29 +48482,25 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1503" t="inlineStr">
@@ -48544,23 +48512,23 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr"/>
@@ -48574,21 +48542,25 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
@@ -48600,193 +48572,197 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr"/>
+      <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1507" t="inlineStr"/>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
@@ -48798,29 +48774,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -48832,31 +48808,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -48866,81 +48838,85 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
@@ -48952,25 +48928,21 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
@@ -48982,23 +48954,23 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
@@ -49012,23 +48984,27 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
           <t>2</t>
@@ -49038,457 +49014,413 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1525" t="inlineStr"/>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
+      <c r="G1528" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr"/>
-      <c r="C1530" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr"/>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1532" t="inlineStr"/>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1533" t="inlineStr"/>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1534" t="inlineStr"/>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
@@ -49500,31 +49432,23 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
         <is>
           <t>3</t>
@@ -49534,25 +49458,21 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
@@ -49564,85 +49484,73 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -49654,17 +49562,17 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
@@ -49680,83 +49588,87 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1544" t="inlineStr">
         <is>
           <t>2</t>
@@ -49766,17 +49678,17 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
@@ -49792,17 +49704,17 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
@@ -49818,21 +49730,25 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
@@ -49844,17 +49760,17 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
@@ -49863,715 +49779,73 @@
       <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1555" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1573" t="inlineStr">
         <is>
           <t>3</t>
         </is>
